--- a/stimui_cc.xlsx
+++ b/stimui_cc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\vhdl\vhdl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31D48DED-61C8-4D99-89C8-02EB1EF44192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AD29FB-C1A7-42FE-8D30-BECD185B783B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="0" windowWidth="22470" windowHeight="13950" xr2:uid="{5CDF98F3-37AD-4D82-9CB2-B75981D2BF62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="20">
   <si>
     <t>par</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>00</t>
   </si>
 </sst>
 </file>
@@ -243,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,6 +311,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1D33FF-6C3A-40E6-94B4-0F9FD4826598}">
-  <dimension ref="A3:P267"/>
+  <dimension ref="A3:N267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -658,7 +668,7 @@
     <col min="14" max="14" width="11.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>0</v>
@@ -690,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="8"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -703,33 +713,29 @@
       </c>
       <c r="E4" s="6"/>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="14">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I4:J4:K4))</f>
-        <v>16</v>
-      </c>
-      <c r="M4" s="15">
-        <v>0</v>
-      </c>
-      <c r="N4" s="15">
-        <v>-1</v>
-      </c>
-      <c r="P4">
-        <f>SQRT(M4^2+N4^2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="M4" s="27">
+        <v>0</v>
+      </c>
+      <c r="N4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -742,33 +748,29 @@
       </c>
       <c r="E5" s="6"/>
       <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="14">
+        <v>1</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I5:J5:K5))</f>
-        <v>18</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P23" si="0">SQRT(M5^2+N5^2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="M5" s="27">
+        <v>0</v>
+      </c>
+      <c r="N5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="2">
         <v>3</v>
@@ -781,33 +783,29 @@
       </c>
       <c r="E6" s="6"/>
       <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I6:J6:K6))</f>
-        <v>17</v>
-      </c>
-      <c r="M6" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="17">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="M6" s="27">
+        <v>0</v>
+      </c>
+      <c r="N6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -820,33 +818,29 @@
       </c>
       <c r="E7" s="6"/>
       <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="16">
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I7:J7:K7))</f>
-        <v>19</v>
-      </c>
-      <c r="M7" s="17">
-        <v>1</v>
-      </c>
-      <c r="N7" s="17">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="M7" s="27">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="2">
         <v>5</v>
@@ -859,33 +853,29 @@
       </c>
       <c r="E8" s="6"/>
       <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="18">
+        <v>4</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I8:J8:K8))</f>
-        <v>32</v>
-      </c>
-      <c r="M8" s="19">
-        <v>1</v>
-      </c>
-      <c r="N8" s="19">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="M8" s="27">
+        <v>0</v>
+      </c>
+      <c r="N8" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="2">
         <v>6</v>
@@ -898,33 +888,29 @@
       </c>
       <c r="E9" s="6"/>
       <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="18">
+        <v>5</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I9:J9:K9))</f>
-        <v>34</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0</v>
-      </c>
-      <c r="N9" s="19">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="M9" s="27">
+        <v>0</v>
+      </c>
+      <c r="N9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="2">
         <v>7</v>
@@ -937,33 +923,29 @@
       </c>
       <c r="E10" s="6"/>
       <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="18">
+        <v>6</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I10:J10:K10))</f>
-        <v>36</v>
-      </c>
-      <c r="M10" s="19">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="19">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="M10" s="27">
+        <v>0</v>
+      </c>
+      <c r="N10" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="2">
         <v>8</v>
@@ -976,33 +958,29 @@
       </c>
       <c r="E11" s="6"/>
       <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="18">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I11:J11:K11))</f>
-        <v>38</v>
-      </c>
-      <c r="M11" s="19">
-        <v>0</v>
-      </c>
-      <c r="N11" s="19">
-        <v>-1</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="M11" s="27">
+        <v>0</v>
+      </c>
+      <c r="N11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="2">
         <v>9</v>
@@ -1015,35 +993,29 @@
       </c>
       <c r="E12" s="6"/>
       <c r="H12">
-        <v>9</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="20">
+        <v>8</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I12:J12:K12))</f>
-        <v>33</v>
-      </c>
-      <c r="M12" s="21">
-        <f>SQRT(2)/2</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="N12" s="21">
-        <f>SQRT(2)/2</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="M12" s="27">
+        <v>0</v>
+      </c>
+      <c r="N12" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="2">
         <v>10</v>
@@ -1056,35 +1028,29 @@
       </c>
       <c r="E13" s="6"/>
       <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="20">
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I13:J13:K13))</f>
-        <v>35</v>
-      </c>
-      <c r="M13" s="21">
-        <f>-SQRT(2)/2</f>
-        <v>-0.70710678118654757</v>
-      </c>
-      <c r="N13" s="21">
-        <f>SQRT(2)/2</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="M13" s="27">
+        <v>0</v>
+      </c>
+      <c r="N13" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="2">
         <v>11</v>
@@ -1097,35 +1063,29 @@
       </c>
       <c r="E14" s="6"/>
       <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="20">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I14:J14:K14))</f>
-        <v>37</v>
-      </c>
-      <c r="M14" s="21">
-        <f>-SQRT(2)/2</f>
-        <v>-0.70710678118654757</v>
-      </c>
-      <c r="N14" s="21">
-        <f>-SQRT(2)/2</f>
-        <v>-0.70710678118654757</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="M14" s="27">
+        <v>0</v>
+      </c>
+      <c r="N14" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="2">
         <v>12</v>
@@ -1138,35 +1098,29 @@
       </c>
       <c r="E15" s="6"/>
       <c r="H15">
-        <v>12</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="20">
+        <v>11</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I15:J15:K15))</f>
-        <v>39</v>
-      </c>
-      <c r="M15" s="21">
-        <f>SQRT(2)/2</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="N15" s="21">
-        <f>-SQRT(2)/2</f>
-        <v>-0.70710678118654757</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="M15" s="27">
+        <v>0</v>
+      </c>
+      <c r="N15" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
       <c r="B16" s="2">
         <v>13</v>
@@ -1179,33 +1133,29 @@
       </c>
       <c r="E16" s="6"/>
       <c r="H16">
-        <v>13</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="22">
+        <v>12</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I16:J16:K16))</f>
-        <v>48</v>
-      </c>
-      <c r="M16" s="23">
-        <v>1</v>
-      </c>
-      <c r="N16" s="23">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="M16" s="27">
+        <v>0</v>
+      </c>
+      <c r="N16" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
       <c r="B17" s="2">
         <v>14</v>
@@ -1218,35 +1168,29 @@
       </c>
       <c r="E17" s="6"/>
       <c r="H17">
-        <v>14</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="22">
+        <v>13</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I17:J17:K17))</f>
-        <v>50</v>
-      </c>
-      <c r="M17" s="23">
-        <f>+SQRT(2)/2</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="N17" s="23">
-        <f>+SQRT(2)/2</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="M17" s="27">
+        <v>0</v>
+      </c>
+      <c r="N17" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
       <c r="B18" s="2">
         <v>15</v>
@@ -1259,33 +1203,29 @@
       </c>
       <c r="E18" s="6"/>
       <c r="H18">
-        <v>15</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="22">
+        <v>14</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I18:J18:K18))</f>
-        <v>52</v>
-      </c>
-      <c r="M18" s="23">
-        <v>0</v>
-      </c>
-      <c r="N18" s="23">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="M18" s="27">
+        <v>0</v>
+      </c>
+      <c r="N18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="9"/>
       <c r="B19" s="2">
         <v>16</v>
@@ -1298,35 +1238,29 @@
       </c>
       <c r="E19" s="6"/>
       <c r="H19">
-        <v>16</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="22">
+        <v>15</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I19:J19:K19))</f>
-        <v>54</v>
-      </c>
-      <c r="M19" s="23">
-        <f>-SQRT(2)/2</f>
-        <v>-0.70710678118654757</v>
-      </c>
-      <c r="N19" s="23">
-        <f>+SQRT(2)/2</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="M19" s="27">
+        <v>0</v>
+      </c>
+      <c r="N19" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="9"/>
       <c r="B20" s="2">
         <v>17</v>
@@ -1339,33 +1273,29 @@
       </c>
       <c r="E20" s="6"/>
       <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="L20" s="14">
+        <f>BIN2DEC(_xlfn.CONCAT(I20:J20:K20))</f>
         <v>16</v>
       </c>
-      <c r="J20" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="22">
-        <f>BIN2DEC(_xlfn.CONCAT(I20:J20:K20))</f>
-        <v>56</v>
-      </c>
-      <c r="M20" s="23">
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
         <v>-1</v>
       </c>
-      <c r="N20" s="23">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="9"/>
       <c r="B21" s="2">
         <v>18</v>
@@ -1378,35 +1308,29 @@
       </c>
       <c r="E21" s="6"/>
       <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="22" t="s">
+      <c r="L21" s="16">
+        <f>BIN2DEC(_xlfn.CONCAT(I21:J21:K21))</f>
         <v>17</v>
       </c>
-      <c r="L21" s="22">
-        <f>BIN2DEC(_xlfn.CONCAT(I21:J21:K21))</f>
-        <v>58</v>
-      </c>
-      <c r="M21" s="23">
-        <f>-SQRT(2)/2</f>
-        <v>-0.70710678118654757</v>
-      </c>
-      <c r="N21" s="23">
-        <f>-SQRT(2)/2</f>
-        <v>-0.70710678118654757</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M21" s="17">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="9"/>
       <c r="B22" s="2">
         <v>19</v>
@@ -1419,33 +1343,29 @@
       </c>
       <c r="E22" s="6"/>
       <c r="H22">
-        <v>19</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="14">
         <f>BIN2DEC(_xlfn.CONCAT(I22:J22:K22))</f>
-        <v>60</v>
-      </c>
-      <c r="M22" s="23">
-        <v>0</v>
-      </c>
-      <c r="N22" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="9"/>
       <c r="B23" s="2">
         <v>20</v>
@@ -1458,35 +1378,29 @@
       </c>
       <c r="E23" s="6"/>
       <c r="H23">
-        <v>20</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="22">
+        <v>19</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="16">
         <f>BIN2DEC(_xlfn.CONCAT(I23:J23:K23))</f>
-        <v>62</v>
-      </c>
-      <c r="M23" s="23">
-        <f>SQRT(2)/2</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="N23" s="23">
-        <f>-SQRT(2)/2</f>
-        <v>-0.70710678118654757</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="M23" s="17">
+        <v>1</v>
+      </c>
+      <c r="N23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="9"/>
       <c r="B24" s="2">
         <v>21</v>
@@ -1499,25 +1413,29 @@
       </c>
       <c r="E24" s="6"/>
       <c r="H24">
-        <v>21</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="24">
+        <v>20</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I24:J24:K24))</f>
-        <v>49</v>
-      </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="M24" s="27">
+        <v>0</v>
+      </c>
+      <c r="N24" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
       <c r="B25" s="2">
         <v>22</v>
@@ -1530,25 +1448,29 @@
       </c>
       <c r="E25" s="6"/>
       <c r="H25">
-        <v>22</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="24">
+        <v>21</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I25:J25:K25))</f>
-        <v>51</v>
-      </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="M25" s="27">
+        <v>0</v>
+      </c>
+      <c r="N25" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="9"/>
       <c r="B26" s="2">
         <v>23</v>
@@ -1561,25 +1483,29 @@
       </c>
       <c r="E26" s="6"/>
       <c r="H26">
-        <v>23</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="24">
+        <v>22</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I26:J26:K26))</f>
-        <v>53</v>
-      </c>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="M26" s="27">
+        <v>0</v>
+      </c>
+      <c r="N26" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="9"/>
       <c r="B27" s="2">
         <v>24</v>
@@ -1592,25 +1518,29 @@
       </c>
       <c r="E27" s="6"/>
       <c r="H27">
-        <v>24</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="24">
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I27:J27:K27))</f>
-        <v>55</v>
-      </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="M27" s="27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="9"/>
       <c r="B28" s="2">
         <v>25</v>
@@ -1623,25 +1553,29 @@
       </c>
       <c r="E28" s="6"/>
       <c r="H28">
-        <v>25</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="24">
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I28:J28:K28))</f>
-        <v>57</v>
-      </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="M28" s="27">
+        <v>0</v>
+      </c>
+      <c r="N28" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="9"/>
       <c r="B29" s="2">
         <v>26</v>
@@ -1654,25 +1588,29 @@
       </c>
       <c r="E29" s="6"/>
       <c r="H29">
-        <v>26</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="24">
+        <v>25</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I29:J29:K29))</f>
-        <v>59</v>
-      </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="M29" s="27">
+        <v>0</v>
+      </c>
+      <c r="N29" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="9"/>
       <c r="B30" s="2">
         <v>27</v>
@@ -1685,25 +1623,29 @@
       </c>
       <c r="E30" s="6"/>
       <c r="H30">
-        <v>27</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="24">
+        <v>26</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I30:J30:K30))</f>
-        <v>61</v>
-      </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="M30" s="27">
+        <v>0</v>
+      </c>
+      <c r="N30" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="9"/>
       <c r="B31" s="2">
         <v>28</v>
@@ -1716,25 +1658,29 @@
       </c>
       <c r="E31" s="6"/>
       <c r="H31">
-        <v>28</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="24">
+        <v>27</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="28">
         <f>BIN2DEC(_xlfn.CONCAT(I31:J31:K31))</f>
-        <v>63</v>
-      </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="M31" s="27">
+        <v>0</v>
+      </c>
+      <c r="N31" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="9"/>
       <c r="B32" s="2">
         <v>29</v>
@@ -1746,8 +1692,30 @@
         <v>2</v>
       </c>
       <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H32">
+        <v>28</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(I32:J32:K32))</f>
+        <v>28</v>
+      </c>
+      <c r="M32" s="27">
+        <v>0</v>
+      </c>
+      <c r="N32" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="9"/>
       <c r="B33" s="2">
         <v>30</v>
@@ -1759,8 +1727,30 @@
         <v>2</v>
       </c>
       <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H33">
+        <v>29</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(I33:J33:K33))</f>
+        <v>29</v>
+      </c>
+      <c r="M33" s="27">
+        <v>0</v>
+      </c>
+      <c r="N33" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="9"/>
       <c r="B34" s="2">
         <v>31</v>
@@ -1772,8 +1762,30 @@
         <v>2</v>
       </c>
       <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(I34:J34:K34))</f>
+        <v>30</v>
+      </c>
+      <c r="M34" s="27">
+        <v>0</v>
+      </c>
+      <c r="N34" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="9"/>
       <c r="B35" s="2">
         <v>32</v>
@@ -1785,8 +1797,30 @@
         <v>2</v>
       </c>
       <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H35">
+        <v>31</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(I35:J35:K35))</f>
+        <v>31</v>
+      </c>
+      <c r="M35" s="27">
+        <v>0</v>
+      </c>
+      <c r="N35" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="9"/>
       <c r="B36" s="2">
         <v>33</v>
@@ -1798,8 +1832,30 @@
         <v>2</v>
       </c>
       <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H36">
+        <v>32</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="18">
+        <f>BIN2DEC(_xlfn.CONCAT(I36:J36:K36))</f>
+        <v>32</v>
+      </c>
+      <c r="M36" s="19">
+        <v>1</v>
+      </c>
+      <c r="N36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="9"/>
       <c r="B37" s="2">
         <v>34</v>
@@ -1811,8 +1867,32 @@
         <v>2</v>
       </c>
       <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H37">
+        <v>33</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="20">
+        <f>BIN2DEC(_xlfn.CONCAT(I37:J37:K37))</f>
+        <v>33</v>
+      </c>
+      <c r="M37" s="21">
+        <f>SQRT(2)/2</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="N37" s="21">
+        <f>SQRT(2)/2</f>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="9"/>
       <c r="B38" s="2">
         <v>35</v>
@@ -1824,8 +1904,30 @@
         <v>2</v>
       </c>
       <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H38">
+        <v>34</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="18">
+        <f>BIN2DEC(_xlfn.CONCAT(I38:J38:K38))</f>
+        <v>34</v>
+      </c>
+      <c r="M38" s="19">
+        <v>0</v>
+      </c>
+      <c r="N38" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="9"/>
       <c r="B39" s="2">
         <v>36</v>
@@ -1837,8 +1939,32 @@
         <v>2</v>
       </c>
       <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H39">
+        <v>35</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="20">
+        <f>BIN2DEC(_xlfn.CONCAT(I39:J39:K39))</f>
+        <v>35</v>
+      </c>
+      <c r="M39" s="21">
+        <f>-SQRT(2)/2</f>
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="N39" s="21">
+        <f>SQRT(2)/2</f>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="9"/>
       <c r="B40" s="2">
         <v>37</v>
@@ -1850,8 +1976,30 @@
         <v>2</v>
       </c>
       <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H40">
+        <v>36</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="18">
+        <f>BIN2DEC(_xlfn.CONCAT(I40:J40:K40))</f>
+        <v>36</v>
+      </c>
+      <c r="M40" s="19">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="9"/>
       <c r="B41" s="2">
         <v>38</v>
@@ -1863,8 +2011,32 @@
         <v>2</v>
       </c>
       <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H41">
+        <v>37</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="20">
+        <f>BIN2DEC(_xlfn.CONCAT(I41:J41:K41))</f>
+        <v>37</v>
+      </c>
+      <c r="M41" s="21">
+        <f>-SQRT(2)/2</f>
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="N41" s="21">
+        <f>-SQRT(2)/2</f>
+        <v>-0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="9"/>
       <c r="B42" s="2">
         <v>39</v>
@@ -1876,8 +2048,30 @@
         <v>2</v>
       </c>
       <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H42">
+        <v>38</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="18">
+        <f>BIN2DEC(_xlfn.CONCAT(I42:J42:K42))</f>
+        <v>38</v>
+      </c>
+      <c r="M42" s="19">
+        <v>0</v>
+      </c>
+      <c r="N42" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="9"/>
       <c r="B43" s="2">
         <v>40</v>
@@ -1889,8 +2083,32 @@
         <v>2</v>
       </c>
       <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H43">
+        <v>39</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="20">
+        <f>BIN2DEC(_xlfn.CONCAT(I43:J43:K43))</f>
+        <v>39</v>
+      </c>
+      <c r="M43" s="21">
+        <f>SQRT(2)/2</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="N43" s="21">
+        <f>-SQRT(2)/2</f>
+        <v>-0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="9"/>
       <c r="B44" s="2">
         <v>41</v>
@@ -1902,8 +2120,30 @@
         <v>2</v>
       </c>
       <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H44">
+        <v>40</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(I44:J44:K44))</f>
+        <v>40</v>
+      </c>
+      <c r="M44" s="27">
+        <v>0</v>
+      </c>
+      <c r="N44" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="9"/>
       <c r="B45" s="2">
         <v>42</v>
@@ -1915,8 +2155,30 @@
         <v>2</v>
       </c>
       <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H45">
+        <v>41</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(I45:J45:K45))</f>
+        <v>41</v>
+      </c>
+      <c r="M45" s="27">
+        <v>0</v>
+      </c>
+      <c r="N45" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="9"/>
       <c r="B46" s="2">
         <v>43</v>
@@ -1928,8 +2190,30 @@
         <v>2</v>
       </c>
       <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H46">
+        <v>42</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(I46:J46:K46))</f>
+        <v>42</v>
+      </c>
+      <c r="M46" s="27">
+        <v>0</v>
+      </c>
+      <c r="N46" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="9"/>
       <c r="B47" s="2">
         <v>44</v>
@@ -1941,8 +2225,30 @@
         <v>2</v>
       </c>
       <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H47">
+        <v>43</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(I47:J47:K47))</f>
+        <v>43</v>
+      </c>
+      <c r="M47" s="27">
+        <v>0</v>
+      </c>
+      <c r="N47" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="9"/>
       <c r="B48" s="2">
         <v>45</v>
@@ -1954,8 +2260,30 @@
         <v>2</v>
       </c>
       <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H48">
+        <v>44</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(I48:J48:K48))</f>
+        <v>44</v>
+      </c>
+      <c r="M48" s="27">
+        <v>0</v>
+      </c>
+      <c r="N48" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="9"/>
       <c r="B49" s="2">
         <v>46</v>
@@ -1967,8 +2295,30 @@
         <v>2</v>
       </c>
       <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H49">
+        <v>45</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(I49:J49:K49))</f>
+        <v>45</v>
+      </c>
+      <c r="M49" s="27">
+        <v>0</v>
+      </c>
+      <c r="N49" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="9"/>
       <c r="B50" s="2">
         <v>47</v>
@@ -1980,8 +2330,30 @@
         <v>2</v>
       </c>
       <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H50">
+        <v>46</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(I50:J50:K50))</f>
+        <v>46</v>
+      </c>
+      <c r="M50" s="27">
+        <v>0</v>
+      </c>
+      <c r="N50" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="9"/>
       <c r="B51" s="2">
         <v>48</v>
@@ -1993,8 +2365,30 @@
         <v>2</v>
       </c>
       <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H51">
+        <v>47</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(I51:J51:K51))</f>
+        <v>47</v>
+      </c>
+      <c r="M51" s="27">
+        <v>0</v>
+      </c>
+      <c r="N51" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="9"/>
       <c r="B52" s="2">
         <v>49</v>
@@ -2006,8 +2400,30 @@
         <v>2</v>
       </c>
       <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H52">
+        <v>48</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(I52:J52:K52))</f>
+        <v>48</v>
+      </c>
+      <c r="M52" s="23">
+        <v>1</v>
+      </c>
+      <c r="N52" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="9"/>
       <c r="B53" s="2">
         <v>50</v>
@@ -2019,8 +2435,26 @@
         <v>2</v>
       </c>
       <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H53">
+        <v>49</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(I53:J53:K53))</f>
+        <v>49</v>
+      </c>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="9"/>
       <c r="B54" s="2">
         <v>51</v>
@@ -2032,8 +2466,32 @@
         <v>2</v>
       </c>
       <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H54">
+        <v>50</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(I54:J54:K54))</f>
+        <v>50</v>
+      </c>
+      <c r="M54" s="23">
+        <f>+SQRT(2)/2</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="N54" s="23">
+        <f>+SQRT(2)/2</f>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="9"/>
       <c r="B55" s="2">
         <v>52</v>
@@ -2045,8 +2503,26 @@
         <v>2</v>
       </c>
       <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H55">
+        <v>51</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(I55:J55:K55))</f>
+        <v>51</v>
+      </c>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" s="9"/>
       <c r="B56" s="2">
         <v>53</v>
@@ -2058,8 +2534,30 @@
         <v>2</v>
       </c>
       <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H56">
+        <v>52</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(I56:J56:K56))</f>
+        <v>52</v>
+      </c>
+      <c r="M56" s="23">
+        <v>0</v>
+      </c>
+      <c r="N56" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="9"/>
       <c r="B57" s="2">
         <v>54</v>
@@ -2071,8 +2569,26 @@
         <v>2</v>
       </c>
       <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H57">
+        <v>53</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(I57:J57:K57))</f>
+        <v>53</v>
+      </c>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" s="9"/>
       <c r="B58" s="2">
         <v>55</v>
@@ -2084,8 +2600,32 @@
         <v>2</v>
       </c>
       <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H58">
+        <v>54</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(I58:J58:K58))</f>
+        <v>54</v>
+      </c>
+      <c r="M58" s="23">
+        <f>-SQRT(2)/2</f>
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="N58" s="23">
+        <f>+SQRT(2)/2</f>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" s="9"/>
       <c r="B59" s="2">
         <v>56</v>
@@ -2097,8 +2637,26 @@
         <v>2</v>
       </c>
       <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H59">
+        <v>55</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(I59:J59:K59))</f>
+        <v>55</v>
+      </c>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" s="9"/>
       <c r="B60" s="2">
         <v>57</v>
@@ -2110,8 +2668,30 @@
         <v>2</v>
       </c>
       <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H60">
+        <v>56</v>
+      </c>
+      <c r="I60" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(I60:J60:K60))</f>
+        <v>56</v>
+      </c>
+      <c r="M60" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N60" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" s="9"/>
       <c r="B61" s="2">
         <v>58</v>
@@ -2123,8 +2703,26 @@
         <v>2</v>
       </c>
       <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H61">
+        <v>57</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(I61:J61:K61))</f>
+        <v>57</v>
+      </c>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="9"/>
       <c r="B62" s="2">
         <v>59</v>
@@ -2136,8 +2734,32 @@
         <v>2</v>
       </c>
       <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H62">
+        <v>58</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(I62:J62:K62))</f>
+        <v>58</v>
+      </c>
+      <c r="M62" s="23">
+        <f>-SQRT(2)/2</f>
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="N62" s="23">
+        <f>-SQRT(2)/2</f>
+        <v>-0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" s="9"/>
       <c r="B63" s="2">
         <v>60</v>
@@ -2149,8 +2771,26 @@
         <v>2</v>
       </c>
       <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H63">
+        <v>59</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(I63:J63:K63))</f>
+        <v>59</v>
+      </c>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" s="9"/>
       <c r="B64" s="2">
         <v>61</v>
@@ -2162,8 +2802,30 @@
         <v>2</v>
       </c>
       <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H64">
+        <v>60</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(I64:J64:K64))</f>
+        <v>60</v>
+      </c>
+      <c r="M64" s="23">
+        <v>0</v>
+      </c>
+      <c r="N64" s="23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="9"/>
       <c r="B65" s="2">
         <v>62</v>
@@ -2175,8 +2837,26 @@
         <v>2</v>
       </c>
       <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H65">
+        <v>61</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(I65:J65:K65))</f>
+        <v>61</v>
+      </c>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="9"/>
       <c r="B66" s="2">
         <v>63</v>
@@ -2188,8 +2868,32 @@
         <v>2</v>
       </c>
       <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H66">
+        <v>62</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(I66:J66:K66))</f>
+        <v>62</v>
+      </c>
+      <c r="M66" s="23">
+        <f>SQRT(2)/2</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="N66" s="23">
+        <f>-SQRT(2)/2</f>
+        <v>-0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="10"/>
       <c r="B67" s="2">
         <v>64</v>
@@ -2201,8 +2905,26 @@
         <v>2</v>
       </c>
       <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H67">
+        <v>63</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(I67:J67:K67))</f>
+        <v>63</v>
+      </c>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" s="8"/>
       <c r="B68" s="3">
         <v>1</v>
@@ -2215,7 +2937,7 @@
       </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="9"/>
       <c r="B69" s="3">
         <v>2</v>
@@ -2228,7 +2950,7 @@
       </c>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" s="9"/>
       <c r="B70" s="3">
         <v>3</v>
@@ -2241,7 +2963,7 @@
       </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" s="9"/>
       <c r="B71" s="3">
         <v>4</v>
@@ -2254,7 +2976,7 @@
       </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72" s="9"/>
       <c r="B72" s="3">
         <v>5</v>
@@ -2267,7 +2989,7 @@
       </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" s="9"/>
       <c r="B73" s="3">
         <v>6</v>
@@ -2280,7 +3002,7 @@
       </c>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="9"/>
       <c r="B74" s="3">
         <v>7</v>
@@ -2293,7 +3015,7 @@
       </c>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" s="9"/>
       <c r="B75" s="3">
         <v>8</v>
@@ -2306,7 +3028,7 @@
       </c>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="9"/>
       <c r="B76" s="3">
         <v>9</v>
@@ -2319,7 +3041,7 @@
       </c>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="9"/>
       <c r="B77" s="3">
         <v>10</v>
@@ -2332,7 +3054,7 @@
       </c>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" s="9"/>
       <c r="B78" s="3">
         <v>11</v>
@@ -2345,7 +3067,7 @@
       </c>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79" s="9"/>
       <c r="B79" s="3">
         <v>12</v>
@@ -2358,7 +3080,7 @@
       </c>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="9"/>
       <c r="B80" s="3">
         <v>13</v>

--- a/stimui_cc.xlsx
+++ b/stimui_cc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\vhdl\vhdl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AD29FB-C1A7-42FE-8D30-BECD185B783B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A86CBC6-7D37-4BC2-AB52-43E1DEEED859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="0" windowWidth="22470" windowHeight="13950" xr2:uid="{5CDF98F3-37AD-4D82-9CB2-B75981D2BF62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="82">
   <si>
     <t>par</t>
   </si>
@@ -89,6 +89,21 @@
     <t>11</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -96,6 +111,177 @@
   </si>
   <si>
     <t>00</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
   </si>
 </sst>
 </file>
@@ -246,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,6 +502,9 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,23 +841,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1D33FF-6C3A-40E6-94B4-0F9FD4826598}">
-  <dimension ref="A3:N267"/>
+  <dimension ref="A3:O267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="9.06640625" style="1"/>
-    <col min="6" max="6" width="11.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="7"/>
-    <col min="9" max="12" width="9.06640625" style="1"/>
-    <col min="13" max="13" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.46484375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625" style="7"/>
+    <col min="10" max="13" width="9.06640625" style="1"/>
+    <col min="14" max="14" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,29 +867,30 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="8"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -708,34 +898,35 @@
       <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
-        <v>2</v>
+      <c r="D4" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>19</v>
+      <c r="F4" s="6"/>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I4:J4:K4))</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="27">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J4:K4:L4))</f>
         <v>0</v>
       </c>
       <c r="N4" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -743,34 +934,35 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
-        <v>2</v>
+      <c r="D5" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>19</v>
+      <c r="F5" s="6"/>
+      <c r="I5">
+        <v>1</v>
       </c>
       <c r="J5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I5:J5:K5))</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="27">
-        <v>0</v>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J5:K5:L5))</f>
+        <v>1</v>
       </c>
       <c r="N5" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="2">
         <v>3</v>
@@ -778,34 +970,35 @@
       <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="H6">
+      <c r="J6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J6:K6:L6))</f>
         <v>2</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I6:J6:K6))</f>
-        <v>2</v>
-      </c>
-      <c r="M6" s="27">
-        <v>0</v>
-      </c>
       <c r="N6" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -813,34 +1006,35 @@
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
-        <v>2</v>
+      <c r="D7" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="H7">
+      <c r="F7" s="6"/>
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I7:J7:K7))</f>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J7:K7:L7))</f>
         <v>3</v>
       </c>
-      <c r="M7" s="27">
-        <v>0</v>
-      </c>
       <c r="N7" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="2">
         <v>5</v>
@@ -848,34 +1042,35 @@
       <c r="C8" s="6">
         <v>0</v>
       </c>
-      <c r="D8" s="6">
-        <v>2</v>
+      <c r="D8" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="H8">
+      <c r="F8" s="6"/>
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I8:J8:K8))</f>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J8:K8:L8))</f>
         <v>4</v>
       </c>
-      <c r="M8" s="27">
-        <v>0</v>
-      </c>
       <c r="N8" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O8" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="2">
         <v>6</v>
@@ -883,34 +1078,35 @@
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
-        <v>2</v>
+      <c r="D9" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="H9">
+      <c r="F9" s="6"/>
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I9:J9:K9))</f>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J9:K9:L9))</f>
         <v>5</v>
       </c>
-      <c r="M9" s="27">
-        <v>0</v>
-      </c>
       <c r="N9" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="2">
         <v>7</v>
@@ -918,34 +1114,35 @@
       <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="6">
-        <v>2</v>
+      <c r="D10" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="H10">
+      <c r="F10" s="6"/>
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I10:J10:K10))</f>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J10:K10:L10))</f>
         <v>6</v>
       </c>
-      <c r="M10" s="27">
-        <v>0</v>
-      </c>
       <c r="N10" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O10" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="2">
         <v>8</v>
@@ -953,34 +1150,35 @@
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
-        <v>2</v>
+      <c r="D11" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="H11">
+      <c r="F11" s="6"/>
+      <c r="I11">
         <v>7</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I11:J11:K11))</f>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J11:K11:L11))</f>
         <v>7</v>
       </c>
-      <c r="M11" s="27">
-        <v>0</v>
-      </c>
       <c r="N11" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="2">
         <v>9</v>
@@ -988,34 +1186,35 @@
       <c r="C12" s="6">
         <v>0</v>
       </c>
-      <c r="D12" s="6">
-        <v>2</v>
+      <c r="D12" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="H12">
+      <c r="F12" s="6"/>
+      <c r="I12">
         <v>8</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I12:J12:K12))</f>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J12:K12:L12))</f>
         <v>8</v>
       </c>
-      <c r="M12" s="27">
-        <v>0</v>
-      </c>
       <c r="N12" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O12" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="2">
         <v>10</v>
@@ -1023,34 +1222,35 @@
       <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
-        <v>2</v>
+      <c r="D13" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="H13">
+      <c r="F13" s="6"/>
+      <c r="I13">
         <v>9</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I13:J13:K13))</f>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J13:K13:L13))</f>
         <v>9</v>
       </c>
-      <c r="M13" s="27">
-        <v>0</v>
-      </c>
       <c r="N13" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O13" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="2">
         <v>11</v>
@@ -1058,34 +1258,35 @@
       <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="6">
-        <v>2</v>
+      <c r="D14" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="H14">
+      <c r="F14" s="6"/>
+      <c r="I14">
         <v>10</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I14:J14:K14))</f>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J14:K14:L14))</f>
         <v>10</v>
       </c>
-      <c r="M14" s="27">
-        <v>0</v>
-      </c>
       <c r="N14" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O14" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="2">
         <v>12</v>
@@ -1093,34 +1294,35 @@
       <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="6">
-        <v>2</v>
+      <c r="D15" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="H15">
+      <c r="F15" s="6"/>
+      <c r="I15">
         <v>11</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I15:J15:K15))</f>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J15:K15:L15))</f>
         <v>11</v>
       </c>
-      <c r="M15" s="27">
-        <v>0</v>
-      </c>
       <c r="N15" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O15" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
       <c r="B16" s="2">
         <v>13</v>
@@ -1128,34 +1330,35 @@
       <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="6">
-        <v>2</v>
+      <c r="D16" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="H16">
+      <c r="F16" s="6"/>
+      <c r="I16">
         <v>12</v>
       </c>
-      <c r="I16" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I16:J16:K16))</f>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J16:K16:L16))</f>
         <v>12</v>
       </c>
-      <c r="M16" s="27">
-        <v>0</v>
-      </c>
       <c r="N16" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O16" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
       <c r="B17" s="2">
         <v>14</v>
@@ -1163,34 +1366,35 @@
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="6">
-        <v>2</v>
+      <c r="D17" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="H17">
+      <c r="F17" s="6"/>
+      <c r="I17">
         <v>13</v>
       </c>
-      <c r="I17" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I17:J17:K17))</f>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J17:K17:L17))</f>
         <v>13</v>
       </c>
-      <c r="M17" s="27">
-        <v>0</v>
-      </c>
       <c r="N17" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O17" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
       <c r="B18" s="2">
         <v>15</v>
@@ -1198,34 +1402,35 @@
       <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="6">
-        <v>2</v>
+      <c r="D18" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="H18">
+      <c r="F18" s="6"/>
+      <c r="I18">
         <v>14</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I18:J18:K18))</f>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J18:K18:L18))</f>
         <v>14</v>
       </c>
-      <c r="M18" s="27">
-        <v>0</v>
-      </c>
       <c r="N18" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="9"/>
       <c r="B19" s="2">
         <v>16</v>
@@ -1233,34 +1438,35 @@
       <c r="C19" s="6">
         <v>1</v>
       </c>
-      <c r="D19" s="6">
-        <v>2</v>
+      <c r="D19" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="H19">
+      <c r="F19" s="6"/>
+      <c r="I19">
         <v>15</v>
       </c>
-      <c r="I19" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="J19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I19:J19:K19))</f>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J19:K19:L19))</f>
         <v>15</v>
       </c>
-      <c r="M19" s="27">
-        <v>0</v>
-      </c>
       <c r="N19" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O19" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="9"/>
       <c r="B20" s="2">
         <v>17</v>
@@ -1268,34 +1474,35 @@
       <c r="C20" s="6">
         <v>0</v>
       </c>
-      <c r="D20" s="6">
-        <v>2</v>
+      <c r="D20" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="H20">
+      <c r="F20" s="6"/>
+      <c r="I20">
         <v>16</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="J20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="K20" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="14">
-        <f>BIN2DEC(_xlfn.CONCAT(I20:J20:K20))</f>
+      <c r="L20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="14">
+        <f>BIN2DEC(_xlfn.CONCAT(J20:K20:L20))</f>
         <v>16</v>
       </c>
-      <c r="M20" s="15">
-        <v>0</v>
-      </c>
       <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="9"/>
       <c r="B21" s="2">
         <v>18</v>
@@ -1303,34 +1510,35 @@
       <c r="C21" s="6">
         <v>1</v>
       </c>
-      <c r="D21" s="6">
-        <v>2</v>
+      <c r="D21" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="H21">
+      <c r="F21" s="6"/>
+      <c r="I21">
         <v>17</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="J21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="K21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="16">
-        <f>BIN2DEC(_xlfn.CONCAT(I21:J21:K21))</f>
+      <c r="L21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="16">
+        <f>BIN2DEC(_xlfn.CONCAT(J21:K21:L21))</f>
         <v>17</v>
       </c>
-      <c r="M21" s="17">
+      <c r="N21" s="17">
         <v>-1</v>
       </c>
-      <c r="N21" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O21" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="9"/>
       <c r="B22" s="2">
         <v>19</v>
@@ -1338,34 +1546,35 @@
       <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D22" s="6">
-        <v>2</v>
+      <c r="D22" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="H22">
+      <c r="F22" s="6"/>
+      <c r="I22">
         <v>18</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="J22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="K22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="14">
-        <f>BIN2DEC(_xlfn.CONCAT(I22:J22:K22))</f>
+      <c r="L22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="14">
+        <f>BIN2DEC(_xlfn.CONCAT(J22:K22:L22))</f>
         <v>18</v>
       </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
       <c r="N22" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="9"/>
       <c r="B23" s="2">
         <v>20</v>
@@ -1373,34 +1582,35 @@
       <c r="C23" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="6">
-        <v>2</v>
+      <c r="D23" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="H23">
+      <c r="F23" s="6"/>
+      <c r="I23">
         <v>19</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="J23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="K23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="16">
-        <f>BIN2DEC(_xlfn.CONCAT(I23:J23:K23))</f>
+      <c r="L23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="16">
+        <f>BIN2DEC(_xlfn.CONCAT(J23:K23:L23))</f>
         <v>19</v>
       </c>
-      <c r="M23" s="17">
-        <v>1</v>
-      </c>
       <c r="N23" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="O23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="9"/>
       <c r="B24" s="2">
         <v>21</v>
@@ -1408,34 +1618,35 @@
       <c r="C24" s="6">
         <v>0</v>
       </c>
-      <c r="D24" s="6">
-        <v>2</v>
+      <c r="D24" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="H24">
+      <c r="F24" s="6"/>
+      <c r="I24">
         <v>20</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="J24" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="K24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I24:J24:K24))</f>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J24:K24:L24))</f>
         <v>20</v>
       </c>
-      <c r="M24" s="27">
-        <v>0</v>
-      </c>
       <c r="N24" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O24" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
       <c r="B25" s="2">
         <v>22</v>
@@ -1443,34 +1654,35 @@
       <c r="C25" s="6">
         <v>1</v>
       </c>
-      <c r="D25" s="6">
-        <v>2</v>
+      <c r="D25" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="H25">
+      <c r="F25" s="6"/>
+      <c r="I25">
         <v>21</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="J25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="K25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I25:J25:K25))</f>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J25:K25:L25))</f>
         <v>21</v>
       </c>
-      <c r="M25" s="27">
-        <v>0</v>
-      </c>
       <c r="N25" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O25" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="9"/>
       <c r="B26" s="2">
         <v>23</v>
@@ -1478,34 +1690,35 @@
       <c r="C26" s="6">
         <v>0</v>
       </c>
-      <c r="D26" s="6">
-        <v>2</v>
+      <c r="D26" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="H26">
+      <c r="F26" s="6"/>
+      <c r="I26">
         <v>22</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="J26" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="K26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I26:J26:K26))</f>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J26:K26:L26))</f>
         <v>22</v>
       </c>
-      <c r="M26" s="27">
-        <v>0</v>
-      </c>
       <c r="N26" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O26" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="9"/>
       <c r="B27" s="2">
         <v>24</v>
@@ -1513,34 +1726,35 @@
       <c r="C27" s="6">
         <v>1</v>
       </c>
-      <c r="D27" s="6">
-        <v>2</v>
+      <c r="D27" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="H27">
+      <c r="F27" s="6"/>
+      <c r="I27">
         <v>23</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I27:J27:K27))</f>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J27:K27:L27))</f>
         <v>23</v>
       </c>
-      <c r="M27" s="27">
-        <v>0</v>
-      </c>
       <c r="N27" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O27" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="9"/>
       <c r="B28" s="2">
         <v>25</v>
@@ -1548,34 +1762,35 @@
       <c r="C28" s="6">
         <v>0</v>
       </c>
-      <c r="D28" s="6">
-        <v>2</v>
+      <c r="D28" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="H28">
+      <c r="F28" s="6"/>
+      <c r="I28">
         <v>24</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="J28" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="K28" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I28:J28:K28))</f>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J28:K28:L28))</f>
         <v>24</v>
       </c>
-      <c r="M28" s="27">
-        <v>0</v>
-      </c>
       <c r="N28" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O28" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="9"/>
       <c r="B29" s="2">
         <v>26</v>
@@ -1583,34 +1798,35 @@
       <c r="C29" s="6">
         <v>1</v>
       </c>
-      <c r="D29" s="6">
-        <v>2</v>
+      <c r="D29" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="H29">
+      <c r="F29" s="6"/>
+      <c r="I29">
         <v>25</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="J29" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="K29" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-      <c r="L29" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I29:J29:K29))</f>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J29:K29:L29))</f>
         <v>25</v>
       </c>
-      <c r="M29" s="27">
-        <v>0</v>
-      </c>
       <c r="N29" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O29" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="9"/>
       <c r="B30" s="2">
         <v>27</v>
@@ -1618,34 +1834,35 @@
       <c r="C30" s="6">
         <v>0</v>
       </c>
-      <c r="D30" s="6">
-        <v>2</v>
+      <c r="D30" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="H30">
+      <c r="F30" s="6"/>
+      <c r="I30">
         <v>26</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="J30" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="K30" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I30:J30:K30))</f>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J30:K30:L30))</f>
         <v>26</v>
       </c>
-      <c r="M30" s="27">
-        <v>0</v>
-      </c>
       <c r="N30" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O30" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="9"/>
       <c r="B31" s="2">
         <v>28</v>
@@ -1653,34 +1870,35 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="6">
-        <v>2</v>
+      <c r="D31" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="H31">
+      <c r="F31" s="6"/>
+      <c r="I31">
         <v>27</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="J31" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="K31" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="1">
-        <v>1</v>
-      </c>
-      <c r="L31" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I31:J31:K31))</f>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J31:K31:L31))</f>
         <v>27</v>
       </c>
-      <c r="M31" s="27">
-        <v>0</v>
-      </c>
       <c r="N31" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O31" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="9"/>
       <c r="B32" s="2">
         <v>29</v>
@@ -1688,34 +1906,35 @@
       <c r="C32" s="6">
         <v>0</v>
       </c>
-      <c r="D32" s="6">
-        <v>2</v>
+      <c r="D32" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="H32">
+      <c r="F32" s="6"/>
+      <c r="I32">
         <v>28</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="J32" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="K32" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I32:J32:K32))</f>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J32:K32:L32))</f>
         <v>28</v>
       </c>
-      <c r="M32" s="27">
-        <v>0</v>
-      </c>
       <c r="N32" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O32" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="9"/>
       <c r="B33" s="2">
         <v>30</v>
@@ -1723,34 +1942,35 @@
       <c r="C33" s="6">
         <v>1</v>
       </c>
-      <c r="D33" s="6">
-        <v>2</v>
+      <c r="D33" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="E33" s="6"/>
-      <c r="H33">
+      <c r="F33" s="6"/>
+      <c r="I33">
         <v>29</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="J33" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="K33" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="1">
-        <v>1</v>
-      </c>
-      <c r="L33" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I33:J33:K33))</f>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J33:K33:L33))</f>
         <v>29</v>
       </c>
-      <c r="M33" s="27">
-        <v>0</v>
-      </c>
       <c r="N33" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O33" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="9"/>
       <c r="B34" s="2">
         <v>31</v>
@@ -1758,34 +1978,35 @@
       <c r="C34" s="6">
         <v>0</v>
       </c>
-      <c r="D34" s="6">
-        <v>2</v>
+      <c r="D34" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="E34" s="6"/>
-      <c r="H34">
+      <c r="F34" s="6"/>
+      <c r="I34">
         <v>30</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="J34" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="K34" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I34:J34:K34))</f>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J34:K34:L34))</f>
         <v>30</v>
       </c>
-      <c r="M34" s="27">
-        <v>0</v>
-      </c>
       <c r="N34" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O34" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="9"/>
       <c r="B35" s="2">
         <v>32</v>
@@ -1793,34 +2014,35 @@
       <c r="C35" s="6">
         <v>1</v>
       </c>
-      <c r="D35" s="6">
-        <v>2</v>
+      <c r="D35" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="E35" s="6"/>
-      <c r="H35">
+      <c r="F35" s="6"/>
+      <c r="I35">
         <v>31</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="J35" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="K35" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-      <c r="L35" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I35:J35:K35))</f>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J35:K35:L35))</f>
         <v>31</v>
       </c>
-      <c r="M35" s="27">
-        <v>0</v>
-      </c>
       <c r="N35" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O35" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="9"/>
       <c r="B36" s="2">
         <v>33</v>
@@ -1828,34 +2050,35 @@
       <c r="C36" s="6">
         <v>0</v>
       </c>
-      <c r="D36" s="6">
-        <v>2</v>
+      <c r="D36" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="E36" s="6"/>
-      <c r="H36">
+      <c r="F36" s="6"/>
+      <c r="I36">
         <v>32</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="J36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="K36" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K36" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="18">
-        <f>BIN2DEC(_xlfn.CONCAT(I36:J36:K36))</f>
+      <c r="L36" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="18">
+        <f>BIN2DEC(_xlfn.CONCAT(J36:K36:L36))</f>
         <v>32</v>
       </c>
-      <c r="M36" s="19">
-        <v>1</v>
-      </c>
       <c r="N36" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="O36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="9"/>
       <c r="B37" s="2">
         <v>34</v>
@@ -1863,36 +2086,37 @@
       <c r="C37" s="6">
         <v>1</v>
       </c>
-      <c r="D37" s="6">
-        <v>2</v>
+      <c r="D37" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="E37" s="6"/>
-      <c r="H37">
+      <c r="F37" s="6"/>
+      <c r="I37">
         <v>33</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="J37" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="K37" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K37" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="20">
-        <f>BIN2DEC(_xlfn.CONCAT(I37:J37:K37))</f>
+      <c r="L37" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="20">
+        <f>BIN2DEC(_xlfn.CONCAT(J37:K37:L37))</f>
         <v>33</v>
-      </c>
-      <c r="M37" s="21">
-        <f>SQRT(2)/2</f>
-        <v>0.70710678118654757</v>
       </c>
       <c r="N37" s="21">
         <f>SQRT(2)/2</f>
         <v>0.70710678118654757</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O37" s="21">
+        <f>SQRT(2)/2</f>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="9"/>
       <c r="B38" s="2">
         <v>35</v>
@@ -1900,34 +2124,35 @@
       <c r="C38" s="6">
         <v>0</v>
       </c>
-      <c r="D38" s="6">
-        <v>2</v>
+      <c r="D38" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="E38" s="6"/>
-      <c r="H38">
+      <c r="F38" s="6"/>
+      <c r="I38">
         <v>34</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="J38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="K38" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="18">
-        <f>BIN2DEC(_xlfn.CONCAT(I38:J38:K38))</f>
+      <c r="L38" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="18">
+        <f>BIN2DEC(_xlfn.CONCAT(J38:K38:L38))</f>
         <v>34</v>
       </c>
-      <c r="M38" s="19">
-        <v>0</v>
-      </c>
       <c r="N38" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="O38" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="9"/>
       <c r="B39" s="2">
         <v>36</v>
@@ -1935,36 +2160,37 @@
       <c r="C39" s="6">
         <v>1</v>
       </c>
-      <c r="D39" s="6">
-        <v>2</v>
+      <c r="D39" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="H39">
+      <c r="F39" s="6"/>
+      <c r="I39">
         <v>35</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="J39" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="K39" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="20">
-        <f>BIN2DEC(_xlfn.CONCAT(I39:J39:K39))</f>
+      <c r="L39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="20">
+        <f>BIN2DEC(_xlfn.CONCAT(J39:K39:L39))</f>
         <v>35</v>
       </c>
-      <c r="M39" s="21">
+      <c r="N39" s="21">
         <f>-SQRT(2)/2</f>
         <v>-0.70710678118654757</v>
       </c>
-      <c r="N39" s="21">
+      <c r="O39" s="21">
         <f>SQRT(2)/2</f>
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="9"/>
       <c r="B40" s="2">
         <v>37</v>
@@ -1972,34 +2198,35 @@
       <c r="C40" s="6">
         <v>0</v>
       </c>
-      <c r="D40" s="6">
-        <v>2</v>
+      <c r="D40" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E40" s="6"/>
-      <c r="H40">
+      <c r="F40" s="6"/>
+      <c r="I40">
         <v>36</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="J40" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="K40" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K40" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="18">
-        <f>BIN2DEC(_xlfn.CONCAT(I40:J40:K40))</f>
+      <c r="L40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="18">
+        <f>BIN2DEC(_xlfn.CONCAT(J40:K40:L40))</f>
         <v>36</v>
       </c>
-      <c r="M40" s="19">
+      <c r="N40" s="19">
         <v>-1</v>
       </c>
-      <c r="N40" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O40" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="9"/>
       <c r="B41" s="2">
         <v>38</v>
@@ -2007,36 +2234,37 @@
       <c r="C41" s="6">
         <v>1</v>
       </c>
-      <c r="D41" s="6">
-        <v>2</v>
+      <c r="D41" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="E41" s="6"/>
-      <c r="H41">
+      <c r="F41" s="6"/>
+      <c r="I41">
         <v>37</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="J41" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="K41" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="20">
-        <f>BIN2DEC(_xlfn.CONCAT(I41:J41:K41))</f>
+      <c r="L41" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="20">
+        <f>BIN2DEC(_xlfn.CONCAT(J41:K41:L41))</f>
         <v>37</v>
-      </c>
-      <c r="M41" s="21">
-        <f>-SQRT(2)/2</f>
-        <v>-0.70710678118654757</v>
       </c>
       <c r="N41" s="21">
         <f>-SQRT(2)/2</f>
         <v>-0.70710678118654757</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O41" s="21">
+        <f>-SQRT(2)/2</f>
+        <v>-0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="9"/>
       <c r="B42" s="2">
         <v>39</v>
@@ -2044,34 +2272,35 @@
       <c r="C42" s="6">
         <v>0</v>
       </c>
-      <c r="D42" s="6">
-        <v>2</v>
+      <c r="D42" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="H42">
+      <c r="F42" s="6"/>
+      <c r="I42">
         <v>38</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="J42" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="K42" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="18">
-        <f>BIN2DEC(_xlfn.CONCAT(I42:J42:K42))</f>
+      <c r="L42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="18">
+        <f>BIN2DEC(_xlfn.CONCAT(J42:K42:L42))</f>
         <v>38</v>
       </c>
-      <c r="M42" s="19">
-        <v>0</v>
-      </c>
       <c r="N42" s="19">
+        <v>0</v>
+      </c>
+      <c r="O42" s="19">
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="9"/>
       <c r="B43" s="2">
         <v>40</v>
@@ -2079,36 +2308,37 @@
       <c r="C43" s="6">
         <v>1</v>
       </c>
-      <c r="D43" s="6">
-        <v>2</v>
+      <c r="D43" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="E43" s="6"/>
-      <c r="H43">
+      <c r="F43" s="6"/>
+      <c r="I43">
         <v>39</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="J43" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="K43" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="20">
-        <f>BIN2DEC(_xlfn.CONCAT(I43:J43:K43))</f>
+      <c r="L43" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="20">
+        <f>BIN2DEC(_xlfn.CONCAT(J43:K43:L43))</f>
         <v>39</v>
       </c>
-      <c r="M43" s="21">
+      <c r="N43" s="21">
         <f>SQRT(2)/2</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="N43" s="21">
+      <c r="O43" s="21">
         <f>-SQRT(2)/2</f>
         <v>-0.70710678118654757</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="9"/>
       <c r="B44" s="2">
         <v>41</v>
@@ -2116,34 +2346,35 @@
       <c r="C44" s="6">
         <v>0</v>
       </c>
-      <c r="D44" s="6">
-        <v>2</v>
+      <c r="D44" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="E44" s="6"/>
-      <c r="H44">
+      <c r="F44" s="6"/>
+      <c r="I44">
         <v>40</v>
       </c>
-      <c r="I44" s="26" t="s">
+      <c r="J44" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="26" t="s">
+      <c r="K44" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I44:J44:K44))</f>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J44:K44:L44))</f>
         <v>40</v>
       </c>
-      <c r="M44" s="27">
-        <v>0</v>
-      </c>
       <c r="N44" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O44" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="9"/>
       <c r="B45" s="2">
         <v>42</v>
@@ -2151,34 +2382,35 @@
       <c r="C45" s="6">
         <v>1</v>
       </c>
-      <c r="D45" s="6">
-        <v>2</v>
+      <c r="D45" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="E45" s="6"/>
-      <c r="H45">
+      <c r="F45" s="6"/>
+      <c r="I45">
         <v>41</v>
       </c>
-      <c r="I45" s="26" t="s">
+      <c r="J45" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="26" t="s">
+      <c r="K45" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
-      <c r="L45" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I45:J45:K45))</f>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J45:K45:L45))</f>
         <v>41</v>
       </c>
-      <c r="M45" s="27">
-        <v>0</v>
-      </c>
       <c r="N45" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O45" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="9"/>
       <c r="B46" s="2">
         <v>43</v>
@@ -2186,34 +2418,35 @@
       <c r="C46" s="6">
         <v>0</v>
       </c>
-      <c r="D46" s="6">
-        <v>2</v>
+      <c r="D46" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="E46" s="6"/>
-      <c r="H46">
+      <c r="F46" s="6"/>
+      <c r="I46">
         <v>42</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="J46" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="26" t="s">
+      <c r="K46" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I46:J46:K46))</f>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J46:K46:L46))</f>
         <v>42</v>
       </c>
-      <c r="M46" s="27">
-        <v>0</v>
-      </c>
       <c r="N46" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O46" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="9"/>
       <c r="B47" s="2">
         <v>44</v>
@@ -2221,34 +2454,35 @@
       <c r="C47" s="6">
         <v>1</v>
       </c>
-      <c r="D47" s="6">
-        <v>2</v>
+      <c r="D47" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="H47">
+      <c r="F47" s="6"/>
+      <c r="I47">
         <v>43</v>
       </c>
-      <c r="I47" s="26" t="s">
+      <c r="J47" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="26" t="s">
+      <c r="K47" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="1">
-        <v>1</v>
-      </c>
-      <c r="L47" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I47:J47:K47))</f>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J47:K47:L47))</f>
         <v>43</v>
       </c>
-      <c r="M47" s="27">
-        <v>0</v>
-      </c>
       <c r="N47" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O47" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="9"/>
       <c r="B48" s="2">
         <v>45</v>
@@ -2256,34 +2490,35 @@
       <c r="C48" s="6">
         <v>0</v>
       </c>
-      <c r="D48" s="6">
-        <v>2</v>
+      <c r="D48" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="E48" s="6"/>
-      <c r="H48">
+      <c r="F48" s="6"/>
+      <c r="I48">
         <v>44</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="J48" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J48" s="26" t="s">
+      <c r="K48" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I48:J48:K48))</f>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J48:K48:L48))</f>
         <v>44</v>
       </c>
-      <c r="M48" s="27">
-        <v>0</v>
-      </c>
       <c r="N48" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O48" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="9"/>
       <c r="B49" s="2">
         <v>46</v>
@@ -2291,34 +2526,35 @@
       <c r="C49" s="6">
         <v>1</v>
       </c>
-      <c r="D49" s="6">
-        <v>2</v>
+      <c r="D49" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="E49" s="6"/>
-      <c r="H49">
+      <c r="F49" s="6"/>
+      <c r="I49">
         <v>45</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="J49" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="26" t="s">
+      <c r="K49" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="1">
-        <v>1</v>
-      </c>
-      <c r="L49" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I49:J49:K49))</f>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J49:K49:L49))</f>
         <v>45</v>
       </c>
-      <c r="M49" s="27">
-        <v>0</v>
-      </c>
       <c r="N49" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O49" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="9"/>
       <c r="B50" s="2">
         <v>47</v>
@@ -2326,34 +2562,35 @@
       <c r="C50" s="6">
         <v>0</v>
       </c>
-      <c r="D50" s="6">
-        <v>2</v>
+      <c r="D50" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="E50" s="6"/>
-      <c r="H50">
+      <c r="F50" s="6"/>
+      <c r="I50">
         <v>46</v>
       </c>
-      <c r="I50" s="26" t="s">
+      <c r="J50" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="26" t="s">
+      <c r="K50" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I50:J50:K50))</f>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J50:K50:L50))</f>
         <v>46</v>
       </c>
-      <c r="M50" s="27">
-        <v>0</v>
-      </c>
       <c r="N50" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O50" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="9"/>
       <c r="B51" s="2">
         <v>48</v>
@@ -2361,34 +2598,35 @@
       <c r="C51" s="6">
         <v>1</v>
       </c>
-      <c r="D51" s="6">
-        <v>2</v>
+      <c r="D51" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="E51" s="6"/>
-      <c r="H51">
+      <c r="F51" s="6"/>
+      <c r="I51">
         <v>47</v>
       </c>
-      <c r="I51" s="26" t="s">
+      <c r="J51" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="26" t="s">
+      <c r="K51" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="1">
-        <v>1</v>
-      </c>
-      <c r="L51" s="28">
-        <f>BIN2DEC(_xlfn.CONCAT(I51:J51:K51))</f>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="28">
+        <f>BIN2DEC(_xlfn.CONCAT(J51:K51:L51))</f>
         <v>47</v>
       </c>
-      <c r="M51" s="27">
-        <v>0</v>
-      </c>
       <c r="N51" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O51" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="9"/>
       <c r="B52" s="2">
         <v>49</v>
@@ -2396,34 +2634,35 @@
       <c r="C52" s="6">
         <v>0</v>
       </c>
-      <c r="D52" s="6">
-        <v>2</v>
+      <c r="D52" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="E52" s="6"/>
-      <c r="H52">
+      <c r="F52" s="6"/>
+      <c r="I52">
         <v>48</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="J52" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="22" t="s">
+      <c r="K52" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K52" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="22">
-        <f>BIN2DEC(_xlfn.CONCAT(I52:J52:K52))</f>
+      <c r="L52" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(J52:K52:L52))</f>
         <v>48</v>
       </c>
-      <c r="M52" s="23">
-        <v>1</v>
-      </c>
       <c r="N52" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="O52" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="9"/>
       <c r="B53" s="2">
         <v>50</v>
@@ -2431,30 +2670,31 @@
       <c r="C53" s="6">
         <v>1</v>
       </c>
-      <c r="D53" s="6">
-        <v>2</v>
+      <c r="D53" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="E53" s="6"/>
-      <c r="H53">
+      <c r="F53" s="6"/>
+      <c r="I53">
         <v>49</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="J53" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="24" t="s">
+      <c r="K53" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K53" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="24">
-        <f>BIN2DEC(_xlfn.CONCAT(I53:J53:K53))</f>
+      <c r="L53" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(J53:K53:L53))</f>
         <v>49</v>
       </c>
-      <c r="M53" s="25"/>
       <c r="N53" s="25"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O53" s="25"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="9"/>
       <c r="B54" s="2">
         <v>51</v>
@@ -2462,36 +2702,37 @@
       <c r="C54" s="6">
         <v>0</v>
       </c>
-      <c r="D54" s="6">
-        <v>2</v>
+      <c r="D54" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="E54" s="6"/>
-      <c r="H54">
+      <c r="F54" s="6"/>
+      <c r="I54">
         <v>50</v>
       </c>
-      <c r="I54" s="22" t="s">
+      <c r="J54" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="22" t="s">
+      <c r="K54" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54" s="22">
-        <f>BIN2DEC(_xlfn.CONCAT(I54:J54:K54))</f>
+      <c r="L54" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(J54:K54:L54))</f>
         <v>50</v>
-      </c>
-      <c r="M54" s="23">
-        <f>+SQRT(2)/2</f>
-        <v>0.70710678118654757</v>
       </c>
       <c r="N54" s="23">
         <f>+SQRT(2)/2</f>
         <v>0.70710678118654757</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O54" s="23">
+        <f>+SQRT(2)/2</f>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="9"/>
       <c r="B55" s="2">
         <v>52</v>
@@ -2499,30 +2740,31 @@
       <c r="C55" s="6">
         <v>1</v>
       </c>
-      <c r="D55" s="6">
-        <v>2</v>
+      <c r="D55" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="E55" s="6"/>
-      <c r="H55">
+      <c r="F55" s="6"/>
+      <c r="I55">
         <v>51</v>
       </c>
-      <c r="I55" s="24" t="s">
+      <c r="J55" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="24" t="s">
+      <c r="K55" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K55" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55" s="24">
-        <f>BIN2DEC(_xlfn.CONCAT(I55:J55:K55))</f>
+      <c r="L55" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(J55:K55:L55))</f>
         <v>51</v>
       </c>
-      <c r="M55" s="25"/>
       <c r="N55" s="25"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O55" s="25"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="9"/>
       <c r="B56" s="2">
         <v>53</v>
@@ -2530,34 +2772,35 @@
       <c r="C56" s="6">
         <v>0</v>
       </c>
-      <c r="D56" s="6">
-        <v>2</v>
+      <c r="D56" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="E56" s="6"/>
-      <c r="H56">
+      <c r="F56" s="6"/>
+      <c r="I56">
         <v>52</v>
       </c>
-      <c r="I56" s="22" t="s">
+      <c r="J56" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="K56" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K56" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L56" s="22">
-        <f>BIN2DEC(_xlfn.CONCAT(I56:J56:K56))</f>
+      <c r="L56" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M56" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(J56:K56:L56))</f>
         <v>52</v>
       </c>
-      <c r="M56" s="23">
-        <v>0</v>
-      </c>
       <c r="N56" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="O56" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="9"/>
       <c r="B57" s="2">
         <v>54</v>
@@ -2565,30 +2808,31 @@
       <c r="C57" s="6">
         <v>1</v>
       </c>
-      <c r="D57" s="6">
-        <v>2</v>
+      <c r="D57" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="E57" s="6"/>
-      <c r="H57">
+      <c r="F57" s="6"/>
+      <c r="I57">
         <v>53</v>
       </c>
-      <c r="I57" s="24" t="s">
+      <c r="J57" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="24" t="s">
+      <c r="K57" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="24">
-        <f>BIN2DEC(_xlfn.CONCAT(I57:J57:K57))</f>
+      <c r="L57" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(J57:K57:L57))</f>
         <v>53</v>
       </c>
-      <c r="M57" s="25"/>
       <c r="N57" s="25"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O57" s="25"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="9"/>
       <c r="B58" s="2">
         <v>55</v>
@@ -2596,36 +2840,37 @@
       <c r="C58" s="6">
         <v>0</v>
       </c>
-      <c r="D58" s="6">
-        <v>2</v>
+      <c r="D58" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="H58">
+      <c r="F58" s="6"/>
+      <c r="I58">
         <v>54</v>
       </c>
-      <c r="I58" s="22" t="s">
+      <c r="J58" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="22" t="s">
+      <c r="K58" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K58" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" s="22">
-        <f>BIN2DEC(_xlfn.CONCAT(I58:J58:K58))</f>
+      <c r="L58" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(J58:K58:L58))</f>
         <v>54</v>
       </c>
-      <c r="M58" s="23">
+      <c r="N58" s="23">
         <f>-SQRT(2)/2</f>
         <v>-0.70710678118654757</v>
       </c>
-      <c r="N58" s="23">
+      <c r="O58" s="23">
         <f>+SQRT(2)/2</f>
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="9"/>
       <c r="B59" s="2">
         <v>56</v>
@@ -2633,30 +2878,31 @@
       <c r="C59" s="6">
         <v>1</v>
       </c>
-      <c r="D59" s="6">
-        <v>2</v>
+      <c r="D59" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="E59" s="6"/>
-      <c r="H59">
+      <c r="F59" s="6"/>
+      <c r="I59">
         <v>55</v>
       </c>
-      <c r="I59" s="24" t="s">
+      <c r="J59" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J59" s="24" t="s">
+      <c r="K59" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="24">
-        <f>BIN2DEC(_xlfn.CONCAT(I59:J59:K59))</f>
+      <c r="L59" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(J59:K59:L59))</f>
         <v>55</v>
       </c>
-      <c r="M59" s="25"/>
       <c r="N59" s="25"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O59" s="25"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="9"/>
       <c r="B60" s="2">
         <v>57</v>
@@ -2664,34 +2910,35 @@
       <c r="C60" s="6">
         <v>0</v>
       </c>
-      <c r="D60" s="6">
-        <v>2</v>
+      <c r="D60" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="E60" s="6"/>
-      <c r="H60">
+      <c r="F60" s="6"/>
+      <c r="I60">
         <v>56</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="J60" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J60" s="22" t="s">
+      <c r="K60" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K60" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L60" s="22">
-        <f>BIN2DEC(_xlfn.CONCAT(I60:J60:K60))</f>
+      <c r="L60" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(J60:K60:L60))</f>
         <v>56</v>
       </c>
-      <c r="M60" s="23">
+      <c r="N60" s="23">
         <v>-1</v>
       </c>
-      <c r="N60" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O60" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="9"/>
       <c r="B61" s="2">
         <v>58</v>
@@ -2699,30 +2946,31 @@
       <c r="C61" s="6">
         <v>1</v>
       </c>
-      <c r="D61" s="6">
-        <v>2</v>
+      <c r="D61" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="E61" s="6"/>
-      <c r="H61">
+      <c r="F61" s="6"/>
+      <c r="I61">
         <v>57</v>
       </c>
-      <c r="I61" s="24" t="s">
+      <c r="J61" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="K61" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K61" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" s="24">
-        <f>BIN2DEC(_xlfn.CONCAT(I61:J61:K61))</f>
+      <c r="L61" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(J61:K61:L61))</f>
         <v>57</v>
       </c>
-      <c r="M61" s="25"/>
       <c r="N61" s="25"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O61" s="25"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="9"/>
       <c r="B62" s="2">
         <v>59</v>
@@ -2730,36 +2978,37 @@
       <c r="C62" s="6">
         <v>0</v>
       </c>
-      <c r="D62" s="6">
-        <v>2</v>
+      <c r="D62" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="H62">
+      <c r="F62" s="6"/>
+      <c r="I62">
         <v>58</v>
       </c>
-      <c r="I62" s="22" t="s">
+      <c r="J62" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="22" t="s">
+      <c r="K62" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L62" s="22">
-        <f>BIN2DEC(_xlfn.CONCAT(I62:J62:K62))</f>
+      <c r="L62" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(J62:K62:L62))</f>
         <v>58</v>
-      </c>
-      <c r="M62" s="23">
-        <f>-SQRT(2)/2</f>
-        <v>-0.70710678118654757</v>
       </c>
       <c r="N62" s="23">
         <f>-SQRT(2)/2</f>
         <v>-0.70710678118654757</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O62" s="23">
+        <f>-SQRT(2)/2</f>
+        <v>-0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="9"/>
       <c r="B63" s="2">
         <v>60</v>
@@ -2767,30 +3016,31 @@
       <c r="C63" s="6">
         <v>1</v>
       </c>
-      <c r="D63" s="6">
-        <v>2</v>
+      <c r="D63" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="H63">
+      <c r="F63" s="6"/>
+      <c r="I63">
         <v>59</v>
       </c>
-      <c r="I63" s="24" t="s">
+      <c r="J63" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J63" s="24" t="s">
+      <c r="K63" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" s="24">
-        <f>BIN2DEC(_xlfn.CONCAT(I63:J63:K63))</f>
+      <c r="L63" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(J63:K63:L63))</f>
         <v>59</v>
       </c>
-      <c r="M63" s="25"/>
       <c r="N63" s="25"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O63" s="25"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="9"/>
       <c r="B64" s="2">
         <v>61</v>
@@ -2798,34 +3048,35 @@
       <c r="C64" s="6">
         <v>0</v>
       </c>
-      <c r="D64" s="6">
-        <v>2</v>
+      <c r="D64" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="E64" s="6"/>
-      <c r="H64">
+      <c r="F64" s="6"/>
+      <c r="I64">
         <v>60</v>
       </c>
-      <c r="I64" s="22" t="s">
+      <c r="J64" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="22" t="s">
+      <c r="K64" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L64" s="22">
-        <f>BIN2DEC(_xlfn.CONCAT(I64:J64:K64))</f>
+      <c r="L64" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(J64:K64:L64))</f>
         <v>60</v>
       </c>
-      <c r="M64" s="23">
-        <v>0</v>
-      </c>
       <c r="N64" s="23">
+        <v>0</v>
+      </c>
+      <c r="O64" s="23">
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="9"/>
       <c r="B65" s="2">
         <v>62</v>
@@ -2833,30 +3084,31 @@
       <c r="C65" s="6">
         <v>1</v>
       </c>
-      <c r="D65" s="6">
-        <v>2</v>
+      <c r="D65" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="E65" s="6"/>
-      <c r="H65">
+      <c r="F65" s="6"/>
+      <c r="I65">
         <v>61</v>
       </c>
-      <c r="I65" s="24" t="s">
+      <c r="J65" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="K65" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K65" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="24">
-        <f>BIN2DEC(_xlfn.CONCAT(I65:J65:K65))</f>
+      <c r="L65" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(J65:K65:L65))</f>
         <v>61</v>
       </c>
-      <c r="M65" s="25"/>
       <c r="N65" s="25"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O65" s="25"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="9"/>
       <c r="B66" s="2">
         <v>63</v>
@@ -2864,36 +3116,37 @@
       <c r="C66" s="6">
         <v>0</v>
       </c>
-      <c r="D66" s="6">
-        <v>2</v>
+      <c r="D66" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="E66" s="6"/>
-      <c r="H66">
+      <c r="F66" s="6"/>
+      <c r="I66">
         <v>62</v>
       </c>
-      <c r="I66" s="22" t="s">
+      <c r="J66" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J66" s="22" t="s">
+      <c r="K66" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K66" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L66" s="22">
-        <f>BIN2DEC(_xlfn.CONCAT(I66:J66:K66))</f>
+      <c r="L66" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" s="22">
+        <f>BIN2DEC(_xlfn.CONCAT(J66:K66:L66))</f>
         <v>62</v>
       </c>
-      <c r="M66" s="23">
+      <c r="N66" s="23">
         <f>SQRT(2)/2</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="N66" s="23">
+      <c r="O66" s="23">
         <f>-SQRT(2)/2</f>
         <v>-0.70710678118654757</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="10"/>
       <c r="B67" s="2">
         <v>64</v>
@@ -2901,30 +3154,31 @@
       <c r="C67" s="6">
         <v>1</v>
       </c>
-      <c r="D67" s="6">
-        <v>2</v>
+      <c r="D67" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="E67" s="6"/>
-      <c r="H67">
+      <c r="F67" s="6"/>
+      <c r="I67">
         <v>63</v>
       </c>
-      <c r="I67" s="24" t="s">
+      <c r="J67" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="24" t="s">
+      <c r="K67" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K67" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="24">
-        <f>BIN2DEC(_xlfn.CONCAT(I67:J67:K67))</f>
+      <c r="L67" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" s="24">
+        <f>BIN2DEC(_xlfn.CONCAT(J67:K67:L67))</f>
         <v>63</v>
       </c>
-      <c r="M67" s="25"/>
       <c r="N67" s="25"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O67" s="25"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="8"/>
       <c r="B68" s="3">
         <v>1</v>
@@ -2936,8 +3190,9 @@
         <v>1</v>
       </c>
       <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="9"/>
       <c r="B69" s="3">
         <v>2</v>
@@ -2949,8 +3204,9 @@
         <v>1</v>
       </c>
       <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="9"/>
       <c r="B70" s="3">
         <v>3</v>
@@ -2962,8 +3218,9 @@
         <v>1</v>
       </c>
       <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="9"/>
       <c r="B71" s="3">
         <v>4</v>
@@ -2975,8 +3232,9 @@
         <v>1</v>
       </c>
       <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="9"/>
       <c r="B72" s="3">
         <v>5</v>
@@ -2988,8 +3246,9 @@
         <v>1</v>
       </c>
       <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="9"/>
       <c r="B73" s="3">
         <v>6</v>
@@ -3001,8 +3260,9 @@
         <v>1</v>
       </c>
       <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="9"/>
       <c r="B74" s="3">
         <v>7</v>
@@ -3014,8 +3274,9 @@
         <v>1</v>
       </c>
       <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="9"/>
       <c r="B75" s="3">
         <v>8</v>
@@ -3027,8 +3288,9 @@
         <v>1</v>
       </c>
       <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="9"/>
       <c r="B76" s="3">
         <v>9</v>
@@ -3040,8 +3302,9 @@
         <v>1</v>
       </c>
       <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="9"/>
       <c r="B77" s="3">
         <v>10</v>
@@ -3053,8 +3316,9 @@
         <v>1</v>
       </c>
       <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="9"/>
       <c r="B78" s="3">
         <v>11</v>
@@ -3066,8 +3330,9 @@
         <v>1</v>
       </c>
       <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="9"/>
       <c r="B79" s="3">
         <v>12</v>
@@ -3079,8 +3344,9 @@
         <v>1</v>
       </c>
       <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="9"/>
       <c r="B80" s="3">
         <v>13</v>
@@ -3092,8 +3358,9 @@
         <v>1</v>
       </c>
       <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="9"/>
       <c r="B81" s="3">
         <v>14</v>
@@ -3105,8 +3372,9 @@
         <v>1</v>
       </c>
       <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="9"/>
       <c r="B82" s="3">
         <v>15</v>
@@ -3118,8 +3386,9 @@
         <v>1</v>
       </c>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="9"/>
       <c r="B83" s="3">
         <v>16</v>
@@ -3131,8 +3400,9 @@
         <v>1</v>
       </c>
       <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="9"/>
       <c r="B84" s="3">
         <v>17</v>
@@ -3144,8 +3414,9 @@
         <v>1</v>
       </c>
       <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="9"/>
       <c r="B85" s="3">
         <v>18</v>
@@ -3157,8 +3428,9 @@
         <v>1</v>
       </c>
       <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="9"/>
       <c r="B86" s="3">
         <v>19</v>
@@ -3170,8 +3442,9 @@
         <v>1</v>
       </c>
       <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="9"/>
       <c r="B87" s="3">
         <v>20</v>
@@ -3183,8 +3456,9 @@
         <v>1</v>
       </c>
       <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="9"/>
       <c r="B88" s="3">
         <v>21</v>
@@ -3196,8 +3470,9 @@
         <v>1</v>
       </c>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="9"/>
       <c r="B89" s="3">
         <v>22</v>
@@ -3209,8 +3484,9 @@
         <v>1</v>
       </c>
       <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="9"/>
       <c r="B90" s="3">
         <v>23</v>
@@ -3222,8 +3498,9 @@
         <v>1</v>
       </c>
       <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="9"/>
       <c r="B91" s="3">
         <v>24</v>
@@ -3235,8 +3512,9 @@
         <v>1</v>
       </c>
       <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="9"/>
       <c r="B92" s="3">
         <v>25</v>
@@ -3248,8 +3526,9 @@
         <v>1</v>
       </c>
       <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="9"/>
       <c r="B93" s="3">
         <v>26</v>
@@ -3261,8 +3540,9 @@
         <v>1</v>
       </c>
       <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="9"/>
       <c r="B94" s="3">
         <v>27</v>
@@ -3274,8 +3554,9 @@
         <v>1</v>
       </c>
       <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="9"/>
       <c r="B95" s="3">
         <v>28</v>
@@ -3287,8 +3568,9 @@
         <v>1</v>
       </c>
       <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="9"/>
       <c r="B96" s="3">
         <v>29</v>
@@ -3300,8 +3582,9 @@
         <v>1</v>
       </c>
       <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="9"/>
       <c r="B97" s="3">
         <v>30</v>
@@ -3313,8 +3596,9 @@
         <v>1</v>
       </c>
       <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="9"/>
       <c r="B98" s="3">
         <v>31</v>
@@ -3326,8 +3610,9 @@
         <v>1</v>
       </c>
       <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="10"/>
       <c r="B99" s="3">
         <v>32</v>
@@ -3339,8 +3624,9 @@
         <v>1</v>
       </c>
       <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="11" t="s">
         <v>5</v>
       </c>
@@ -3351,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="12"/>
       <c r="B101" s="4">
         <v>2</v>
@@ -3360,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="12"/>
       <c r="B102" s="4">
         <v>3</v>
@@ -3369,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="12"/>
       <c r="B103" s="4">
         <v>4</v>
@@ -3378,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="12"/>
       <c r="B104" s="4">
         <v>5</v>
@@ -3387,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="12"/>
       <c r="B105" s="4">
         <v>6</v>
@@ -3396,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="12"/>
       <c r="B106" s="4">
         <v>7</v>
@@ -3405,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="12"/>
       <c r="B107" s="4">
         <v>8</v>
@@ -3414,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="12"/>
       <c r="B108" s="4">
         <v>9</v>
@@ -3423,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="12"/>
       <c r="B109" s="4">
         <v>10</v>
@@ -3432,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="13"/>
       <c r="B110" s="4">
         <v>11</v>
@@ -3441,12 +3727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B111" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B112" s="5">
         <v>2</v>
       </c>
